--- a/二期/控件设计/搜索框/【网页版】search-1.0.0-20181212.xlsx
+++ b/二期/控件设计/搜索框/【网页版】search-1.0.0-20181212.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
   <si>
     <t>修订历史</t>
   </si>
@@ -128,15 +128,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>是否有确认按钮</t>
-  </si>
-  <si>
-    <t>可设为按钮文字，enter-button/enter-button="Search"</t>
-  </si>
-  <si>
-    <t>Boolean | String</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
   </si>
   <si>
     <t>可选值</t>
-  </si>
-  <si>
-    <t>前置插槽</t>
   </si>
   <si>
     <t>下拉弹出框插槽</t>
@@ -307,10 +295,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>enter-button</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>clearable</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -328,10 +312,6 @@
   </si>
   <si>
     <t>size</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>disable</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -375,16 +355,97 @@
     <t>droplist</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>disabled</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>alse</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>con</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框尾部图标</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置插槽</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                        后置插槽                           &lt;Button slot="append" icon="ios-search"&gt;&lt;/Button&gt;</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：droplist里面的option需要使用vui-search-option</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +569,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1132,7 +1214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1332,10 +1414,10 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,6 +1429,54 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,114 +1501,66 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1487,6 +1569,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1989,15 +2086,15 @@
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
@@ -2006,11 +2103,11 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="41"/>
       <c r="J2" s="42"/>
       <c r="K2" s="5"/>
@@ -2019,63 +2116,63 @@
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="43"/>
       <c r="J3" s="44"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
-      <c r="B4" s="100"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="20"/>
       <c r="J4" s="45"/>
       <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="100"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="32"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
       <c r="I5" s="43"/>
       <c r="J5" s="42"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
-      <c r="B6" s="100"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="20"/>
       <c r="J6" s="45"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="100"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="32"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="46"/>
       <c r="J7" s="42"/>
       <c r="K7" s="5"/>
@@ -2084,11 +2181,11 @@
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="20"/>
       <c r="J8" s="45"/>
       <c r="K8" s="33"/>
@@ -2176,8 +2273,8 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
       <c r="I15" s="18"/>
@@ -2188,11 +2285,11 @@
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
       <c r="K16" s="5"/>
@@ -2200,40 +2297,40 @@
     <row r="17" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="7"/>
       <c r="D17" s="35"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="18"/>
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="92"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="92"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="92"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="18"/>
       <c r="J20" s="19"/>
     </row>
@@ -2241,11 +2338,11 @@
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="20"/>
       <c r="J21" s="19"/>
       <c r="K21" s="5"/>
@@ -2271,8 +2368,8 @@
     <row r="24" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="92"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="18"/>
@@ -2280,11 +2377,11 @@
     </row>
     <row r="25" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="7"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="86"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="20"/>
       <c r="J25" s="19"/>
     </row>
@@ -2309,8 +2406,8 @@
     <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="18"/>
@@ -2319,8 +2416,8 @@
     <row r="29" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
       <c r="I29" s="18"/>
@@ -2339,6 +2436,11 @@
     <row r="31" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="E28:F28"/>
@@ -2354,11 +2456,6 @@
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -2376,8 +2473,8 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2398,15 +2495,15 @@
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2415,13 +2512,13 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="41"/>
       <c r="J2" s="42"/>
     </row>
@@ -2429,39 +2526,39 @@
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="43"/>
       <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:11" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
-      <c r="B4" s="100"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="20"/>
       <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="100"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="32"/>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
       <c r="I5" s="43"/>
       <c r="J5" s="42"/>
     </row>
@@ -2469,13 +2566,13 @@
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
       <c r="I6" s="20"/>
       <c r="J6" s="45"/>
     </row>
@@ -2483,13 +2580,13 @@
       <c r="A7" s="5"/>
       <c r="B7" s="34"/>
       <c r="C7" s="32"/>
-      <c r="D7" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
+      <c r="D7" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="43"/>
       <c r="J7" s="42"/>
     </row>
@@ -2497,13 +2594,13 @@
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="20"/>
       <c r="J8" s="45"/>
     </row>
@@ -2534,7 +2631,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="50" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>23</v>
@@ -2554,7 +2651,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>26</v>
@@ -2574,7 +2671,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="52" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>28</v>
@@ -2596,7 +2693,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E13" s="53" t="s">
         <v>31</v>
@@ -2605,8 +2702,8 @@
       <c r="G13" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="56" t="s">
-        <v>33</v>
+      <c r="H13" s="123" t="s">
+        <v>101</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="19"/>
@@ -2615,21 +2712,19 @@
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>37</v>
-      </c>
+      <c r="D14" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="57"/>
       <c r="I14" s="18"/>
       <c r="J14" s="19"/>
     </row>
@@ -2638,19 +2733,19 @@
       <c r="B15" s="6"/>
       <c r="C15" s="58"/>
       <c r="D15" s="52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="19"/>
@@ -2660,19 +2755,19 @@
       <c r="B16" s="6"/>
       <c r="C16" s="58"/>
       <c r="D16" s="52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="19"/>
@@ -2682,13 +2777,13 @@
       <c r="B17" s="6"/>
       <c r="C17" s="58"/>
       <c r="D17" s="52" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G17" s="52" t="s">
         <v>32</v>
@@ -2703,11 +2798,11 @@
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
     </row>
@@ -2715,13 +2810,13 @@
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="95"/>
+      <c r="D19" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
     </row>
@@ -2739,7 +2834,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="18"/>
@@ -2750,16 +2845,16 @@
       <c r="B21" s="6"/>
       <c r="C21" s="58"/>
       <c r="D21" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="59" t="s">
         <v>47</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>50</v>
       </c>
       <c r="H21" s="59"/>
       <c r="I21" s="18"/>
@@ -2770,16 +2865,16 @@
       <c r="B22" s="6"/>
       <c r="C22" s="58"/>
       <c r="D22" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="60" t="s">
         <v>51</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>54</v>
       </c>
       <c r="H22" s="60"/>
       <c r="I22" s="18"/>
@@ -2790,16 +2885,16 @@
       <c r="B23" s="6"/>
       <c r="C23" s="58"/>
       <c r="D23" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="18"/>
@@ -2810,13 +2905,13 @@
       <c r="B24" s="6"/>
       <c r="C24" s="58"/>
       <c r="D24" s="50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G24" s="61"/>
       <c r="H24" s="61"/>
@@ -2828,13 +2923,13 @@
       <c r="B25" s="6"/>
       <c r="C25" s="58"/>
       <c r="D25" s="50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="50"/>
@@ -2845,11 +2940,11 @@
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="107"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="112"/>
       <c r="I26" s="18"/>
       <c r="J26" s="19"/>
     </row>
@@ -2857,13 +2952,13 @@
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="58"/>
-      <c r="D27" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="95"/>
+      <c r="D27" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
       <c r="I27" s="18"/>
       <c r="J27" s="19"/>
     </row>
@@ -2881,7 +2976,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>22</v>
@@ -2893,14 +2988,14 @@
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="58"/>
-      <c r="D29" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>66</v>
+      <c r="D29" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="125" t="s">
+        <v>106</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G29" s="50"/>
       <c r="H29" s="50"/>
@@ -2912,15 +3007,17 @@
       <c r="B30" s="6"/>
       <c r="C30" s="58"/>
       <c r="D30" s="50" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="G30" s="127" t="s">
+        <v>108</v>
+      </c>
       <c r="H30" s="50"/>
       <c r="I30" s="18"/>
       <c r="J30" s="19"/>
@@ -2929,11 +3026,13 @@
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="110"/>
+      <c r="D31" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="115"/>
       <c r="I31" s="18"/>
       <c r="J31" s="19"/>
     </row>
@@ -2941,13 +3040,13 @@
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="95"/>
+      <c r="D32" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="88"/>
       <c r="I32" s="18"/>
       <c r="J32" s="19"/>
     </row>
@@ -2965,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>22</v>
@@ -2978,13 +3077,13 @@
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F34" s="63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G34" s="52" t="s">
         <v>25</v>
@@ -2998,13 +3097,13 @@
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="50" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G35" s="50"/>
       <c r="H35" s="50"/>
@@ -3016,13 +3115,13 @@
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="50" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G36" s="50" t="s">
         <v>25</v>
@@ -3036,13 +3135,13 @@
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="50" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G37" s="50" t="s">
         <v>25</v>
@@ -3054,11 +3153,11 @@
     <row r="38" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="110"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="115"/>
       <c r="I38" s="18"/>
       <c r="J38" s="42"/>
     </row>
@@ -3066,52 +3165,57 @@
       <c r="A39" s="30"/>
       <c r="B39" s="2"/>
       <c r="C39" s="31"/>
-      <c r="D39" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="86"/>
+      <c r="D39" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="80"/>
       <c r="I39" s="20"/>
       <c r="J39" s="45"/>
     </row>
     <row r="40" spans="1:10" ht="394.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="C40" s="32"/>
-      <c r="D40" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="113"/>
+      <c r="D40" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
       <c r="I40" s="46"/>
       <c r="J40" s="42"/>
     </row>
     <row r="41" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="116"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="106"/>
       <c r="I41" s="18"/>
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="14"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="119"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="109"/>
       <c r="I42" s="21"/>
       <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D40:H42"/>
@@ -3125,11 +3229,6 @@
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="D19:H19"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -3137,7 +3236,7 @@
     <hyperlink ref="K1" location="设计图例!A1" display="查看设计图例 →"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3167,32 +3266,32 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+        <v>76</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
+      <c r="D2" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="41"/>
       <c r="J2" s="42"/>
       <c r="K2" s="5"/>
@@ -3201,65 +3300,65 @@
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="43"/>
       <c r="J3" s="44"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
-      <c r="B4" s="100"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="20"/>
       <c r="J4" s="45"/>
       <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="100"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="32"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
       <c r="I5" s="43"/>
       <c r="J5" s="42"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30"/>
-      <c r="B6" s="100"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
+      <c r="D6" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
       <c r="I6" s="20"/>
       <c r="J6" s="45"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="100"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="32"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="46"/>
       <c r="J7" s="42"/>
       <c r="K7" s="5"/>
@@ -3268,11 +3367,11 @@
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="20"/>
       <c r="J8" s="45"/>
       <c r="K8" s="33"/>
@@ -3360,8 +3459,8 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
       <c r="I15" s="18"/>
@@ -3372,11 +3471,11 @@
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
       <c r="K16" s="5"/>
@@ -3384,40 +3483,40 @@
     <row r="17" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="7"/>
       <c r="D17" s="35"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="18"/>
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="92"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="92"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="92"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="18"/>
       <c r="J20" s="19"/>
     </row>
@@ -3425,11 +3524,11 @@
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="20"/>
       <c r="J21" s="19"/>
       <c r="K21" s="5"/>
@@ -3455,8 +3554,8 @@
     <row r="24" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="92"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="18"/>
@@ -3464,11 +3563,11 @@
     </row>
     <row r="25" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="7"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="86"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="20"/>
       <c r="J25" s="19"/>
     </row>
@@ -3493,8 +3592,8 @@
     <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="18"/>
@@ -3503,8 +3602,8 @@
     <row r="29" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
       <c r="I29" s="18"/>
@@ -3523,6 +3622,11 @@
     <row r="31" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="E28:F28"/>
@@ -3538,11 +3642,6 @@
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -3581,19 +3680,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+        <v>80</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3613,63 +3712,63 @@
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="43"/>
       <c r="J3" s="44"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
-      <c r="B4" s="100"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="20"/>
       <c r="J4" s="45"/>
       <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="100"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="32"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
       <c r="I5" s="43"/>
       <c r="J5" s="42"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
-      <c r="B6" s="100"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="20"/>
       <c r="J6" s="45"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="100"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="32"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="46"/>
       <c r="J7" s="42"/>
       <c r="K7" s="5"/>
@@ -3678,11 +3777,11 @@
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="20"/>
       <c r="J8" s="45"/>
       <c r="K8" s="33"/>
@@ -3770,8 +3869,8 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
       <c r="I15" s="18"/>
@@ -3782,11 +3881,11 @@
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
       <c r="K16" s="5"/>
@@ -3794,40 +3893,40 @@
     <row r="17" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="7"/>
       <c r="D17" s="35"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="18"/>
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="92"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="92"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="92"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="18"/>
       <c r="J20" s="19"/>
     </row>
@@ -3835,11 +3934,11 @@
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="20"/>
       <c r="J21" s="19"/>
       <c r="K21" s="5"/>
@@ -3865,8 +3964,8 @@
     <row r="24" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="92"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="18"/>
@@ -3874,11 +3973,11 @@
     </row>
     <row r="25" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="7"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="86"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="20"/>
       <c r="J25" s="19"/>
     </row>
@@ -3903,8 +4002,8 @@
     <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="18"/>
@@ -3913,8 +4012,8 @@
     <row r="29" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
       <c r="I29" s="18"/>
@@ -3933,6 +4032,11 @@
     <row r="31" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="E28:F28"/>
@@ -3948,11 +4052,6 @@
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -3990,19 +4089,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+        <v>82</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4010,8 +4109,8 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="18"/>
@@ -4036,10 +4135,10 @@
     <row r="4" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="7"/>
       <c r="D4" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -4050,10 +4149,10 @@
     <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="7"/>
       <c r="D5" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -4064,18 +4163,18 @@
     <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="92"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
       <c r="I7" s="18"/>
@@ -4084,8 +4183,8 @@
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
       <c r="I8" s="18"/>
